--- a/publipostage/016ncsr12/liste_essais_cliniques_identifies_016ncsr12.xlsx
+++ b/publipostage/016ncsr12/liste_essais_cliniques_identifies_016ncsr12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I78"/>
+  <dimension ref="A1:J78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,40 +441,45 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>status_label</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>NCTId</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>eudraCT</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>completion_year</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>clinical_trial_title</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>acronym</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>results_1y</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>results_3y</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>results</t>
         </is>
@@ -488,32 +493,37 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>NCT01161212</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr">
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
         <is>
           <t>2006</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Physical Activity, Health-related Quality of Life and Corpulence Among French Schoolchildren</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>REGUL'APS</t>
         </is>
       </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
       <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -525,28 +535,33 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>NCT00301470</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
         <is>
           <t>2008</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Interest of MR Urography in the Evaluation of Functional Consequences of Urinary Tract in Children and Adults</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="b">
         <v>0</v>
       </c>
       <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -558,32 +573,37 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>NCT00814554</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
         <is>
           <t>2009</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>PRALIMAP: Effectiveness Evaluation of Three Strategies of Prevention of Overweight and Obesity in Adolescents; a Cluster Randomised Controlled Trial</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>PRALIMAP</t>
         </is>
       </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
       <c r="H4" t="b">
         <v>0</v>
       </c>
       <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="b">
         <v>1</v>
       </c>
     </row>
@@ -595,28 +615,33 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>NCT01242007</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Lung Function Impairment and Postural Spirometry Changes in Ambulatory Myotonic Dystrophy Patients</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="b">
         <v>0</v>
       </c>
       <c r="I5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -628,32 +653,37 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>NCT02861235</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr">
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Comparison Between Myocardial Tomoscintigraphies Using a Semiconductor Camera or a Conventional Camera According to Conditions of Examination Execution: Assessment of Infarction or Ischemia, Injected Dye and Sequence of Injections</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>DSPECT</t>
         </is>
       </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
       <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -665,32 +695,37 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>NCT02885090</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr">
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Search for New Genes Involved in Molecular Etiology of Rett Syndrome Through Comparative Genomic Hybridization on DNA Microarrays</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>RETT</t>
         </is>
       </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
       <c r="I7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" t="b">
         <v>0</v>
       </c>
     </row>
@@ -702,32 +737,37 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>NCT02887131</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>NCT01570179</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Evaluation of Dynamic Computed Tomography Anatomy of Ankle in Inversion / Eversion Mouvement in Subtalar Instability.</t>
-        </is>
-      </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>IDIS</t>
-        </is>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
+          <t>Sugammadex in Patients Undergoing Bariatric Surgery: An Equivalence Trial Comparing Real and Ideal Body Weight-based Dosing</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>SugReBaCh-1</t>
+        </is>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
       <c r="I8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -739,28 +779,37 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>NCT02129621</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>NCT02887131</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Prospective Study of Neutrophil Gelatinase Associated Lipocalin (NGAL)as a Biomarker of Mineralocorticoid Receiver Activity in Human: Proof of Concept.</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="b">
-        <v>0</v>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Evaluation of Dynamic Computed Tomography Anatomy of Ankle in Inversion / Eversion Mouvement in Subtalar Instability.</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>IDIS</t>
+        </is>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
       <c r="I9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" t="b">
         <v>0</v>
       </c>
     </row>
@@ -772,32 +821,33 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>NCT02877537</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>NCT02129621</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Measurements of Change of Respiratory Admittance Induced by Salbutamol for Pediatric Asthma Diagnosis</t>
-        </is>
-      </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>SALBUTAMOL</t>
-        </is>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
+          <t>Prospective Study of Neutrophil Gelatinase Associated Lipocalin (NGAL)as a Biomarker of Mineralocorticoid Receiver Activity in Human: Proof of Concept.</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
       <c r="H10" t="b">
         <v>0</v>
       </c>
       <c r="I10" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" t="b">
         <v>0</v>
       </c>
     </row>
@@ -809,32 +859,37 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>NCT01570179</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>NCT02877537</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Sugammadex in Patients Undergoing Bariatric Surgery: An Equivalence Trial Comparing Real and Ideal Body Weight-based Dosing</t>
-        </is>
-      </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>SugReBaCh-1</t>
-        </is>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
+          <t>Measurements of Change of Respiratory Admittance Induced by Salbutamol for Pediatric Asthma Diagnosis</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>SALBUTAMOL</t>
+        </is>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
       <c r="I11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" t="b">
         <v>0</v>
       </c>
     </row>
@@ -846,32 +901,37 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>NCT03234205</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr">
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>Measurements of Myocardial Relaxation Time by MRI During Respiration</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>ARTEMIS</t>
         </is>
       </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
       <c r="I12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" t="b">
         <v>0</v>
       </c>
     </row>
@@ -883,33 +943,38 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>NCT01351961</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>NCT01090934</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Arterial Function and Structure and Evolution of Cognitive Impairment in Elderly Hypertensive Subjects With Subjective Memory Complaints</t>
-        </is>
-      </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>ADELAHYDE2</t>
-        </is>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
+          <t>Etude de la Performance Diagnostique de l'EEG-Haute Résolution Sur la Localisation de la Zone épileptogène Pour le Traitement Chirurgical Des épilepsies Partielles Pharmaco-résistantes</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>EEG-HR</t>
+        </is>
       </c>
       <c r="H13" t="b">
         <v>0</v>
       </c>
       <c r="I13" t="b">
         <v>0</v>
+      </c>
+      <c r="J13" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -920,32 +985,37 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>NCT02182908</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>NCT01351961</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>ANALYSE EN MORPHO-TEP AU FDG DE L'EVOLUTIVITE DES ANEVRISMES ABDOMINAUX AORTIQUES NON CHIRURGICAUX UNE ETUDE MULTICENTRIQUE DE L'INTER-REGION NORD-EST</t>
-        </is>
-      </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>AAA</t>
-        </is>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
+          <t>Arterial Function and Structure and Evolution of Cognitive Impairment in Elderly Hypertensive Subjects With Subjective Memory Complaints</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>ADELAHYDE2</t>
+        </is>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
       <c r="I14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" t="b">
         <v>0</v>
       </c>
     </row>
@@ -957,32 +1027,37 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>NCT02858167</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>NCT02182908</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Creation of a Normal Database for FluoroDeoxyGlucose-Positron Emission Tomography (FDG-PET) Neurological Examinations: Study of Principal Inter-individual Variation Factors</t>
-        </is>
-      </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>BDD TEP FDG</t>
-        </is>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
+          <t>ANALYSE EN MORPHO-TEP AU FDG DE L'EVOLUTIVITE DES ANEVRISMES ABDOMINAUX AORTIQUES NON CHIRURGICAUX UNE ETUDE MULTICENTRIQUE DE L'INTER-REGION NORD-EST</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>AAA</t>
+        </is>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
       <c r="I15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" t="b">
         <v>0</v>
       </c>
     </row>
@@ -994,70 +1069,80 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>NCT03240029</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>NCT02858167</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Life Quality of Children in Cancer Remission During School Reintegration</t>
-        </is>
-      </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>QdV leucémie</t>
-        </is>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
+          <t>Creation of a Normal Database for FluoroDeoxyGlucose-Positron Emission Tomography (FDG-PET) Neurological Examinations: Study of Principal Inter-individual Variation Factors</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>BDD TEP FDG</t>
+        </is>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
       <c r="I16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟧</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>NCT02861222</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr">
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>NCT01963221</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Myocet® in Children With Relapsed or Refractory Non-brainstem Malignant Glioma</t>
-        </is>
-      </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>MYOCET</t>
-        </is>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
+          <t>RELATIONSHIP BETWEEN THORACIC AORTIC STRUCTURE ASSESSED BY PET/CT SCAN AND ARTERIAL STIFFNESS IN ELDERLY PATIENTS: FICTEP STUDY</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>FICTEP</t>
+        </is>
       </c>
       <c r="H17" t="b">
         <v>0</v>
       </c>
       <c r="I17" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J17" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1068,144 +1153,164 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>NCT01090934</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>NCT03240029</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Etude de la Performance Diagnostique de l'EEG-Haute Résolution Sur la Localisation de la Zone épileptogène Pour le Traitement Chirurgical Des épilepsies Partielles Pharmaco-résistantes</t>
-        </is>
-      </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>EEG-HR</t>
-        </is>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
+          <t>Life Quality of Children in Cancer Remission During School Reintegration</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>QdV leucémie</t>
+        </is>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
       <c r="I18" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>🟧</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>NCT01963221</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>NCT02861222</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>RELATIONSHIP BETWEEN THORACIC AORTIC STRUCTURE ASSESSED BY PET/CT SCAN AND ARTERIAL STIFFNESS IN ELDERLY PATIENTS: FICTEP STUDY</t>
-        </is>
-      </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>FICTEP</t>
-        </is>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
+          <t>Myocet® in Children With Relapsed or Refractory Non-brainstem Malignant Glioma</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>MYOCET</t>
+        </is>
       </c>
       <c r="H19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J19" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟧</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>NCT01544647</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr">
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>NCT01722617</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Comparison of 2 Spa Therapy Protocols in Symptomatic Knee Osteoarthritis : a Randomised Trial</t>
-        </is>
-      </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Nancythermal</t>
-        </is>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
+          <t>A Study to Validate Questionnaires FLARE and OM-RA-FLARE Measuring Disease Flares in Patients With Rheumatoid Arthritis.</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>FLARE</t>
+        </is>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
       <c r="I20" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J20" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>🟧</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>NCT01722617</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>NCT01692977</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>A Study to Validate Questionnaires FLARE and OM-RA-FLARE Measuring Disease Flares in Patients With Rheumatoid Arthritis.</t>
-        </is>
-      </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>FLARE</t>
-        </is>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
+          <t>Orienting Oneself in a Healing Garden: What Elements of the Design Are Used as Landmarks by Patients With Alzheimer's Disease ?</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>JAZ-TOP</t>
+        </is>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J21" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1216,32 +1321,37 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>NCT01692977</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>NCT01544647</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Orienting Oneself in a Healing Garden: What Elements of the Design Are Used as Landmarks by Patients With Alzheimer's Disease ?</t>
-        </is>
-      </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>JAZ-TOP</t>
-        </is>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
+          <t>Comparison of 2 Spa Therapy Protocols in Symptomatic Knee Osteoarthritis : a Randomised Trial</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Nancythermal</t>
+        </is>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
       <c r="I22" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1253,66 +1363,80 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>NCT02879786</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>NCT02869100</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Study of Hierarchy of Afferents in Postural Control of Children With Dyslexia</t>
-        </is>
-      </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>EQUIDYS</t>
-        </is>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
+          <t>Comparison of Sodium Fluoride Positron Emission Tomography and Magnetic Resonance Imaging of Spine and Sacroiliac Joints for Detection of Inflammatory Lesions in Patients Affected by Spondyloarthritis</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>FNa</t>
+        </is>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
       <c r="I23" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟧</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>NCT02893449</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr">
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>NCT02851576</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Improvement of Social Adaptation After Pre-operative Cognitive Remediation in Parkinson's Patients Profiting From a Bilateral Subthalamic Stimulation</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="b">
-        <v>0</v>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Generation of Clinical Grade Adenovirus Specific T Cells for Adoptive Immunotherapy After Allogeneic Stem Cell Transplantation : Clinical Trial</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>CTL-ADV</t>
+        </is>
       </c>
       <c r="H24" t="b">
         <v>0</v>
       </c>
       <c r="I24" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J24" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1323,32 +1447,33 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>NCT02869126</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>NCT02893449</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Study of the Concordance Between a Traditional Protocol of Stress and Rest Myocardial Tomoscintigraphy Using 99mTc-sestamibi and a Double Isotope Protocol Using Thallium-201 and 99mTc-sestamibi, With a Semiconductor Camera</t>
-        </is>
-      </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>D-SPECT BIS</t>
-        </is>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
+          <t>Improvement of Social Adaptation After Pre-operative Cognitive Remediation in Parkinson's Patients Profiting From a Bilateral Subthalamic Stimulation</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
       <c r="H25" t="b">
         <v>0</v>
       </c>
       <c r="I25" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1360,33 +1485,38 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>NCT02430805</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>NCT02879786</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Genetics and Genomics of Hypertension Associated With Microinflammation, Oxydative Stress, Chronic Renal Disease and Heart Failure (A2-B2-B3)</t>
-        </is>
-      </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Hypercare</t>
-        </is>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
+          <t>Study of Hierarchy of Afferents in Postural Control of Children With Dyslexia</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>EQUIDYS</t>
+        </is>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
       <c r="I26" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J26" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1397,70 +1527,80 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
           <t>NCT02874196</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr">
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>Study of Diagnostic Performances of Dual Energy Imaging With Flat Detectors and Tomosynthesis in Identification of Loosening of Painful Hip Prosthesis</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>PLIDET</t>
         </is>
       </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
       <c r="H27" t="b">
         <v>0</v>
       </c>
       <c r="I27" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>🟧</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>NCT02851576</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>NCT02869126</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>Generation of Clinical Grade Adenovirus Specific T Cells for Adoptive Immunotherapy After Allogeneic Stem Cell Transplantation : Clinical Trial</t>
-        </is>
-      </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>CTL-ADV</t>
-        </is>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
+          <t>Study of the Concordance Between a Traditional Protocol of Stress and Rest Myocardial Tomoscintigraphy Using 99mTc-sestamibi and a Double Isotope Protocol Using Thallium-201 and 99mTc-sestamibi, With a Semiconductor Camera</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>D-SPECT BIS</t>
+        </is>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J28" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1471,32 +1611,37 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>NCT01716819</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>NCT02430805</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>Role of the Renin Angiotensin Aldosterone System and Remodeling of the Matrix Cardiac Extra Cellular in the Mechanisms of Transition to Heart Failure in Abdominal Obesity: Prospective Longitudinal Study R2C2 II</t>
-        </is>
-      </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>R2C2-II</t>
-        </is>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
+          <t>Genetics and Genomics of Hypertension Associated With Microinflammation, Oxydative Stress, Chronic Renal Disease and Heart Failure (A2-B2-B3)</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Hypercare</t>
+        </is>
       </c>
       <c r="H29" t="b">
         <v>0</v>
       </c>
       <c r="I29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J29" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1508,111 +1653,126 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>NCT02869100</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>NCT01716819</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>Comparison of Sodium Fluoride Positron Emission Tomography and Magnetic Resonance Imaging of Spine and Sacroiliac Joints for Detection of Inflammatory Lesions in Patients Affected by Spondyloarthritis</t>
-        </is>
-      </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>FNa</t>
-        </is>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
+          <t>Role of the Renin Angiotensin Aldosterone System and Remodeling of the Matrix Cardiac Extra Cellular in the Mechanisms of Transition to Heart Failure in Abdominal Obesity: Prospective Longitudinal Study R2C2 II</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>R2C2-II</t>
+        </is>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
       <c r="I30" t="b">
         <v>0</v>
+      </c>
+      <c r="J30" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>🟧</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>NCT01367743</t>
+          <t>rouge</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2009-017081-23</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
+          <t>NCT02894632</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Optimizing the Use of Vasopressor After Coronary Reperfusion in Cardiogenic Shock Secondary to Myocardial Infarction. Pathophysiological Study Comparing the Efficacy and Cardio-circulatory Tolerability of Epinephrine and Norepinephrine</t>
-        </is>
-      </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>OptimaCC</t>
-        </is>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
+          <t>MR Compatible Accelerometer for Respiratory MOTion Measurement</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>MARMOT</t>
+        </is>
       </c>
       <c r="H31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J31" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟧</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>NCT02894632</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr"/>
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>NCT01367743</t>
+        </is>
+      </c>
       <c r="D32" t="inlineStr">
         <is>
+          <t>2009-017081-23</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>MR Compatible Accelerometer for Respiratory MOTion Measurement</t>
-        </is>
-      </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>MARMOT</t>
-        </is>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
+          <t>Optimizing the Use of Vasopressor After Coronary Reperfusion in Cardiogenic Shock Secondary to Myocardial Infarction. Pathophysiological Study Comparing the Efficacy and Cardio-circulatory Tolerability of Epinephrine and Norepinephrine</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>OptimaCC</t>
+        </is>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
       <c r="I32" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J32" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1623,32 +1783,37 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
           <t>NCT02634099</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr">
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>Hemoglobin Monitoring During High Bleeding Risk Surgery in Pediatric Patients: Equivalence Study of Hemoglobin Transcutaneous Saturation and Hemocue With Total Serum Hemoglobin</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>Hemoped</t>
         </is>
       </c>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
       <c r="I33" t="b">
+        <v>0</v>
+      </c>
+      <c r="J33" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1660,70 +1825,80 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>NCT02940847</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr">
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>NCT02285712</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>The Effectiveness of Ultrasound-guided Technique Compared to Blind Technique in Medial Brachial Cutaneous Nerve Block and Intercostobrachial Nerve Block, in the Axilla</t>
-        </is>
-      </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>ECHO_NCMB</t>
-        </is>
-      </c>
-      <c r="G34" t="b">
-        <v>0</v>
+          <t>Contribution of Ultrasound for Peripheral Intravenous Catheter Placement by Intensive Care Nurses</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>IDECHO</t>
+        </is>
       </c>
       <c r="H34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="b">
+        <v>1</v>
+      </c>
+      <c r="J34" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>🟧</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>NCT02285712</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>NCT02556502</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>Contribution of Ultrasound for Peripheral Intravenous Catheter Placement by Intensive Care Nurses</t>
-        </is>
-      </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>IDECHO</t>
-        </is>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
+          <t>18F-Florbetaben PET Amyloid Imaging in Case of Intermediate CSF Biology for the Diagnosis of Alzheimer's Disease : a Pilot Study</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>MAF</t>
+        </is>
       </c>
       <c r="H35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J35" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1734,32 +1909,37 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
           <t>NCT03136315</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr">
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>Renal Function Evaluation in an Ultra Endurance Race: On the Interest of Monitoring Specific Biomarkers to Asses Renal Risk.</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>INFERNAL</t>
         </is>
       </c>
-      <c r="G36" t="b">
-        <v>0</v>
-      </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
       <c r="I36" t="b">
+        <v>0</v>
+      </c>
+      <c r="J36" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1771,70 +1951,80 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>NCT02556502</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>NCT02873949</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>18F-Florbetaben PET Amyloid Imaging in Case of Intermediate CSF Biology for the Diagnosis of Alzheimer's Disease : a Pilot Study</t>
-        </is>
-      </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>MAF</t>
-        </is>
-      </c>
-      <c r="G37" t="b">
-        <v>0</v>
+          <t>Analysis of Soluble TREM (Triggering Receptor Expressed on Myeloid Cells)-1 and -2 in Crevicular Fluid and Associated Bacterial Flora in Patients Affected by Periodontitis</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>TREM</t>
+        </is>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
       <c r="I37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J37" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟧</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>NCT02873949</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr">
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>NCT02940847</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>Analysis of Soluble TREM (Triggering Receptor Expressed on Myeloid Cells)-1 and -2 in Crevicular Fluid and Associated Bacterial Flora in Patients Affected by Periodontitis</t>
-        </is>
-      </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>TREM</t>
-        </is>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
+          <t>The Effectiveness of Ultrasound-guided Technique Compared to Blind Technique in Medial Brachial Cutaneous Nerve Block and Intercostobrachial Nerve Block, in the Axilla</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>ECHO_NCMB</t>
+        </is>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
       <c r="I38" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J38" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1845,66 +2035,80 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>NCT02820376</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>NCT03306290</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>Assessment of Differential Renal Function by CT in Living Donors - The DOVISCAN Study</t>
-        </is>
-      </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>DOVISCAN</t>
-        </is>
-      </c>
-      <c r="G39" t="b">
-        <v>0</v>
+          <t>An Evaluation of Serum Concentration of CEFOxitin Used for Antibiotic Prophylaxis in Severely and Morbidly Obese Patients Undergoing BARiatric Surgery (CEFOBAR)</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>CEFOBAR</t>
+        </is>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
       <c r="I39" t="b">
+        <v>0</v>
+      </c>
+      <c r="J39" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>🟧</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>NCT02116868</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>NCT02820376</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>Usefulness of Pupillary Reflex on Remifentanil and Morphine Consumption During Laparoscopic Surgery. A Bicentric, Prospective, Randomized, Controlled Trial.</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="b">
-        <v>0</v>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Assessment of Differential Renal Function by CT in Living Donors - The DOVISCAN Study</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>DOVISCAN</t>
+        </is>
       </c>
       <c r="H40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J40" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1915,70 +2119,76 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>NCT03306290</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>NCT02869321</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>An Evaluation of Serum Concentration of CEFOxitin Used for Antibiotic Prophylaxis in Severely and Morbidly Obese Patients Undergoing BARiatric Surgery (CEFOBAR)</t>
-        </is>
-      </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>CEFOBAR</t>
-        </is>
-      </c>
-      <c r="G41" t="b">
-        <v>0</v>
+          <t>Evaluation of Analgesic Efficacy of Transmucosal Fentanyl for Breakthrough Pain Caused by Interventional Gastrostomy</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>ANTALGIP</t>
+        </is>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
       <c r="I41" t="b">
+        <v>0</v>
+      </c>
+      <c r="J41" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟧</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>NCT02869321</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr">
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>NCT02116868</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>Evaluation of Analgesic Efficacy of Transmucosal Fentanyl for Breakthrough Pain Caused by Interventional Gastrostomy</t>
-        </is>
-      </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>ANTALGIP</t>
-        </is>
-      </c>
-      <c r="G42" t="b">
-        <v>0</v>
-      </c>
+          <t>Usefulness of Pupillary Reflex on Remifentanil and Morphine Consumption During Laparoscopic Surgery. A Bicentric, Prospective, Randomized, Controlled Trial.</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr"/>
       <c r="H42" t="b">
         <v>0</v>
       </c>
       <c r="I42" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J42" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -1989,140 +2199,160 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
           <t>NCT02864680</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr">
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>Electrophysiological Study of the Functioning of Magnocellular Visual Pathway in Regular Cannabis Users</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>CAUSA MAP</t>
         </is>
       </c>
-      <c r="G43" t="b">
-        <v>0</v>
-      </c>
       <c r="H43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="b">
+        <v>1</v>
+      </c>
+      <c r="J43" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>🟧</t>
+          <t>🟩</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>NCT04562571</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>NCT02754193</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>Impact of a Public Commitment Charter Associated With Patient Information Leaflets on Antibiotics Prescribed by General Practitioners</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" t="b">
-        <v>0</v>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Effects of Induced Moderate HYPOthermia on Mortality in Cardiogenic Shock Patients Rescued by Veno-arterial ExtraCorporeal Membrane Oxygenation (ECMO)</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>HYPO-ECMO</t>
+        </is>
       </c>
       <c r="H44" t="b">
         <v>1</v>
       </c>
       <c r="I44" t="b">
+        <v>1</v>
+      </c>
+      <c r="J44" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>🟩</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>NCT02754193</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr"/>
-      <c r="D45" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>NCT03356301</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>Effects of Induced Moderate HYPOthermia on Mortality in Cardiogenic Shock Patients Rescued by Veno-arterial ExtraCorporeal Membrane Oxygenation (ECMO)</t>
-        </is>
-      </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>HYPO-ECMO</t>
-        </is>
-      </c>
-      <c r="G45" t="b">
-        <v>1</v>
+          <t>Study of the Remodeling of the Ascending Aorta During the Sports Season in Long Distance Triathletes Versus Controls</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>CoATri</t>
+        </is>
       </c>
       <c r="H45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J45" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟧</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>NCT03356301</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr">
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>NCT04562571</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>Study of the Remodeling of the Ascending Aorta During the Sports Season in Long Distance Triathletes Versus Controls</t>
-        </is>
-      </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>CoATri</t>
-        </is>
-      </c>
-      <c r="G46" t="b">
-        <v>0</v>
-      </c>
+          <t>Impact of a Public Commitment Charter Associated With Patient Information Leaflets on Antibiotics Prescribed by General Practitioners</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr"/>
       <c r="H46" t="b">
         <v>0</v>
       </c>
       <c r="I46" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J46" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -2133,107 +2363,122 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>NCT01109225</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr"/>
-      <c r="D47" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>NCT02261870</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>Multiparametric Study of Cardiac Remodeling After Myocardial Infarction Revascularized in Acute Phase : Relation With the Serum Concentrations in Aldosterone</t>
-        </is>
-      </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>REMI</t>
-        </is>
-      </c>
-      <c r="G47" t="b">
-        <v>1</v>
+          <t>"Detection of Acute Rejection in Heart Transplant Patients by Mean of T2 Quantification With MRI" Open Transversal Clinical Trial With Repeated Measures</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>DRAGET</t>
+        </is>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
       <c r="I47" t="b">
+        <v>1</v>
+      </c>
+      <c r="J47" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>🟥</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr"/>
+          <t>🟩</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>vert</t>
+        </is>
+      </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>2009-012817-23</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
+          <t>NCT03125447</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>Utilisation d’un surfactant exogène chez des nouveau-nés grands prématurés présentant une détresse respiratoire sévère en prévention de la dysplasie bronchopulmonaire</t>
-        </is>
-      </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Etude CURDYS</t>
-        </is>
-      </c>
-      <c r="G48" t="b">
-        <v>0</v>
+          <t>Posture and Mobility Influence on Attention Capacity in Former Premature Children at 6 Years of Age.</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>PAM</t>
+        </is>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J48" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>🟩</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>NCT03125447</t>
+          <t>rouge</t>
         </is>
       </c>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr">
         <is>
+          <t>2009-012817-23</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>Posture and Mobility Influence on Attention Capacity in Former Premature Children at 6 Years of Age.</t>
-        </is>
-      </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>PAM</t>
-        </is>
-      </c>
-      <c r="G49" t="b">
-        <v>1</v>
+          <t>Utilisation d’un surfactant exogène chez des nouveau-nés grands prématurés présentant une détresse respiratoire sévère en prévention de la dysplasie bronchopulmonaire</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Etude CURDYS</t>
+        </is>
       </c>
       <c r="H49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J49" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -2244,70 +2489,80 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
           <t>NCT03980418</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr">
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>Comparative Study of DaTSCAN ™ Cerebral SPECT Recorded by Conventional Anger Cameras and Semiconductor Camera (VERITON-CT ™)</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>VERIDAT</t>
         </is>
       </c>
-      <c r="G50" t="b">
-        <v>0</v>
-      </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
       <c r="I50" t="b">
+        <v>0</v>
+      </c>
+      <c r="J50" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>🟩</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>NCT02261870</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>NCT02765009</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>"Detection of Acute Rejection in Heart Transplant Patients by Mean of T2 Quantification With MRI" Open Transversal Clinical Trial With Repeated Measures</t>
-        </is>
-      </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>DRAGET</t>
-        </is>
-      </c>
-      <c r="G51" t="b">
-        <v>1</v>
+          <t>Effects of Fluid Balance Control in Critically Ill Patients: A Multicenter Randomized Study</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>POINCARE</t>
+        </is>
       </c>
       <c r="H51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J51" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -2318,66 +2573,80 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>NCT04448769</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>NCT02640287</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>Epidemiological Study of Seroprevalence Against the SARS-CoV-2 Virus (COVID-19) in the Population of the Grand Nancy Metropolitan Area</t>
-        </is>
-      </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>COVAL-NANCY</t>
-        </is>
-      </c>
-      <c r="G52" t="b">
-        <v>0</v>
+          <t>Expression of Ku70/XRCC6 and Others NHEJ Components in Waldenström's Macroglobulinemia in Comparison With Others B-cell Lymphoproliferative Disorders and Normal B Cells.</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>WAL-KU</t>
+        </is>
       </c>
       <c r="H52" t="b">
         <v>0</v>
       </c>
       <c r="I52" t="b">
+        <v>0</v>
+      </c>
+      <c r="J52" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟩</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>NCT02268071</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr"/>
-      <c r="D53" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>NCT01109225</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>Arrêt du Traitement Antihypertenseur Chez Les Patients Hypertendus Suivis en Médecine Générale / Stopping Antihypertensive Treatment amOng Hypertensive Patients in Primary Care: The STOP-Trial</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr"/>
-      <c r="G53" t="b">
-        <v>0</v>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Multiparametric Study of Cardiac Remodeling After Myocardial Infarction Revascularized in Acute Phase : Relation With the Serum Concentrations in Aldosterone</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>REMI</t>
+        </is>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J53" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -2388,32 +2657,37 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>NCT03345290</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr"/>
-      <c r="D54" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>NCT04448769</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>Impact of the Central Blood Pressure Level in Cerebral Metabolic Aging: a 18F-FDG PET Study.</t>
-        </is>
-      </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>PACTEP</t>
-        </is>
-      </c>
-      <c r="G54" t="b">
-        <v>0</v>
+          <t>Epidemiological Study of Seroprevalence Against the SARS-CoV-2 Virus (COVID-19) in the Population of the Grand Nancy Metropolitan Area</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>COVAL-NANCY</t>
+        </is>
       </c>
       <c r="H54" t="b">
         <v>0</v>
       </c>
       <c r="I54" t="b">
+        <v>0</v>
+      </c>
+      <c r="J54" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2425,32 +2699,33 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>NCT02640287</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr"/>
-      <c r="D55" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>NCT02268071</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>Expression of Ku70/XRCC6 and Others NHEJ Components in Waldenström's Macroglobulinemia in Comparison With Others B-cell Lymphoproliferative Disorders and Normal B Cells.</t>
-        </is>
-      </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>WAL-KU</t>
-        </is>
-      </c>
-      <c r="G55" t="b">
-        <v>0</v>
-      </c>
+          <t>Arrêt du Traitement Antihypertenseur Chez Les Patients Hypertendus Suivis en Médecine Générale / Stopping Antihypertensive Treatment amOng Hypertensive Patients in Primary Care: The STOP-Trial</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr"/>
       <c r="H55" t="b">
         <v>0</v>
       </c>
       <c r="I55" t="b">
+        <v>0</v>
+      </c>
+      <c r="J55" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2462,189 +2737,214 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>NCT02765009</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr"/>
-      <c r="D56" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>NCT03345290</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>Effects of Fluid Balance Control in Critically Ill Patients: A Multicenter Randomized Study</t>
-        </is>
-      </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>POINCARE</t>
-        </is>
-      </c>
-      <c r="G56" t="b">
-        <v>0</v>
+          <t>Impact of the Central Blood Pressure Level in Cerebral Metabolic Aging: a 18F-FDG PET Study.</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>PACTEP</t>
+        </is>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
       <c r="I56" t="b">
+        <v>0</v>
+      </c>
+      <c r="J56" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟩</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>NCT04354610</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr"/>
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>NCT04373707</t>
+        </is>
+      </c>
       <c r="D57" t="inlineStr">
         <is>
+          <t>2020-001709-21</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>Prediction of Acute Heart or Kidney Injury With Cardiovascular-renal Biomarkers in Patients Hospitalised for Severe or Critical Covid-19 Infection</t>
-        </is>
-      </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Nancy-CovH-AKI</t>
-        </is>
-      </c>
-      <c r="G57" t="b">
-        <v>0</v>
+          <t>Effectiveness of Weight-adjusted Prophylactic Low Molecular Weight Heparin Doses Compared With Lower Fixed Prophylactic Doses to Prevent Venous Thromboembolism in COVID-2019. The Multicenter Randomized Controlled Open-label Trial COVI-DOSE</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>COVI-DOSE</t>
+        </is>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J57" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟧</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>NCT03465098</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr"/>
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>NCT04625738</t>
+        </is>
+      </c>
       <c r="D58" t="inlineStr">
         <is>
+          <t>2020-002772-12</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>Evaluation of a Low-Carbohydrate Diet to Highlight Easily Infective Endocarditis by 18F-FDG PET</t>
-        </is>
-      </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>TEPEIR</t>
-        </is>
-      </c>
-      <c r="G58" t="b">
-        <v>0</v>
+          <t>Efficacy of Infusions of Mesenchymal Stem Cells From Wharton Jelly in the Moderate to Severe SARS-Cov-2 Related Acute Respiratory Distress Syndrome (COVID-19): A Phase IIa Double-blind Randomized Controlled Trial</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>MSC-COVID19</t>
+        </is>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
       <c r="I58" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J58" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>🟧</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>NCT04625738</t>
+          <t>rouge</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>2020-002772-12</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
+          <t>NCT03465098</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>Efficacy of Infusions of Mesenchymal Stem Cells From Wharton Jelly in the Moderate to Severe SARS-Cov-2 Related Acute Respiratory Distress Syndrome (COVID-19): A Phase IIa Double-blind Randomized Controlled Trial</t>
-        </is>
-      </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>MSC-COVID19</t>
-        </is>
-      </c>
-      <c r="G59" t="b">
-        <v>0</v>
+          <t>Evaluation of a Low-Carbohydrate Diet to Highlight Easily Infective Endocarditis by 18F-FDG PET</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>TEPEIR</t>
+        </is>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J59" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>🟩</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>NCT04373707</t>
+          <t>rouge</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>2020-001709-21</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
+          <t>NCT04354610</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>Effectiveness of Weight-adjusted Prophylactic Low Molecular Weight Heparin Doses Compared With Lower Fixed Prophylactic Doses to Prevent Venous Thromboembolism in COVID-2019. The Multicenter Randomized Controlled Open-label Trial COVI-DOSE</t>
-        </is>
-      </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>COVI-DOSE</t>
-        </is>
-      </c>
-      <c r="G60" t="b">
-        <v>1</v>
+          <t>Prediction of Acute Heart or Kidney Injury With Cardiovascular-renal Biomarkers in Patients Hospitalised for Severe or Critical Covid-19 Infection</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Nancy-CovH-AKI</t>
+        </is>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J60" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2655,70 +2955,80 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
           <t>NCT02879825</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr">
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>Myocardial Characterization of Arrhythmogenic Mitral Valve Prolapse</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>STAMP</t>
         </is>
       </c>
-      <c r="G61" t="b">
-        <v>0</v>
-      </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
       <c r="I61" t="b">
+        <v>0</v>
+      </c>
+      <c r="J61" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟩</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>NCT02976545</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>NCT03342014</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>VECU EMOTIONNEL CHEZ LES PATIENTES SOUFFRANT DE CRISES NON EPILEPTIQUES PSYCHOGENES : ETUDE EN IMAGERIE PAR RESONANCE MAGNETIQUE FONCTIONNELLE-ETUDE EMOCRISES</t>
-        </is>
-      </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>EMOCRISES</t>
-        </is>
-      </c>
-      <c r="G62" t="b">
-        <v>0</v>
+          <t>First Trimester Screening for Preeclampsia and Intrauterine Growth RestrIction Using Three Dimensional Doppler Angiography (SPIRIT): A Prospective Study in Nulliparous Pregnant Women</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>SPIRIT</t>
+        </is>
       </c>
       <c r="H62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J62" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -2729,32 +3039,37 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>NCT02887053</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr"/>
-      <c r="D63" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>NCT05308433</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>Développement Méthodologique de l'Imagerie Par Résonance Magnétique (IRM)</t>
-        </is>
-      </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>METHODO</t>
-        </is>
-      </c>
-      <c r="G63" t="b">
-        <v>0</v>
+          <t>Cybersickness imAgiNg Olfactory Evocation</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>CANOE</t>
+        </is>
       </c>
       <c r="H63" t="b">
         <v>0</v>
       </c>
       <c r="I63" t="b">
+        <v>0</v>
+      </c>
+      <c r="J63" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2766,32 +3081,37 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>NCT05308433</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr"/>
-      <c r="D64" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>NCT02976545</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>Cybersickness imAgiNg Olfactory Evocation</t>
-        </is>
-      </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>CANOE</t>
-        </is>
-      </c>
-      <c r="G64" t="b">
-        <v>0</v>
+          <t>VECU EMOTIONNEL CHEZ LES PATIENTES SOUFFRANT DE CRISES NON EPILEPTIQUES PSYCHOGENES : ETUDE EN IMAGERIE PAR RESONANCE MAGNETIQUE FONCTIONNELLE-ETUDE EMOCRISES</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>EMOCRISES</t>
+        </is>
       </c>
       <c r="H64" t="b">
         <v>0</v>
       </c>
       <c r="I64" t="b">
+        <v>0</v>
+      </c>
+      <c r="J64" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2803,32 +3123,37 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
           <t>NCT03370809</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr"/>
-      <c r="D65" t="inlineStr">
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>Assessment of Positron Emission Tomography to Early Detect Frailty in Onco-geriatry</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>FOGTEP</t>
         </is>
       </c>
-      <c r="G65" t="b">
-        <v>0</v>
-      </c>
       <c r="H65" t="b">
         <v>0</v>
       </c>
       <c r="I65" t="b">
+        <v>0</v>
+      </c>
+      <c r="J65" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2840,70 +3165,80 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>NCT03348306</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr"/>
-      <c r="D66" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>NCT02887053</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>Assessement of a Multi-organ Screening Procedure for the Detection of Pre-clinical Ischaemia in Antiphospholipid Syndrome The COBRA Study (CardiO-Brain Renal Involvement in Antiphospholipid Syndrome)</t>
-        </is>
-      </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>COBRA</t>
-        </is>
-      </c>
-      <c r="G66" t="b">
-        <v>0</v>
+          <t>Développement Méthodologique de l'Imagerie Par Résonance Magnétique (IRM)</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>METHODO</t>
+        </is>
       </c>
       <c r="H66" t="b">
         <v>0</v>
       </c>
       <c r="I66" t="b">
+        <v>0</v>
+      </c>
+      <c r="J66" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>🟩</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>NCT03342014</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr"/>
-      <c r="D67" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>NCT03327493</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>First Trimester Screening for Preeclampsia and Intrauterine Growth RestrIction Using Three Dimensional Doppler Angiography (SPIRIT): A Prospective Study in Nulliparous Pregnant Women</t>
-        </is>
-      </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>SPIRIT</t>
-        </is>
-      </c>
-      <c r="G67" t="b">
-        <v>1</v>
+          <t>Impact of Adrenoreceptor Expressions on Inflammatory Pattern in Refractory Cardiogenic Shock Patients Treated by Veno-arterial Extra-Corporeal Membrane Oxygenation</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>ADRECMO</t>
+        </is>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J67" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2914,70 +3249,80 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>NCT03327493</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr"/>
-      <c r="D68" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>NCT03348306</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>Impact of Adrenoreceptor Expressions on Inflammatory Pattern in Refractory Cardiogenic Shock Patients Treated by Veno-arterial Extra-Corporeal Membrane Oxygenation</t>
-        </is>
-      </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>ADRECMO</t>
-        </is>
-      </c>
-      <c r="G68" t="b">
-        <v>0</v>
+          <t>Assessement of a Multi-organ Screening Procedure for the Detection of Pre-clinical Ischaemia in Antiphospholipid Syndrome The COBRA Study (CardiO-Brain Renal Involvement in Antiphospholipid Syndrome)</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>COBRA</t>
+        </is>
       </c>
       <c r="H68" t="b">
         <v>0</v>
       </c>
       <c r="I68" t="b">
+        <v>0</v>
+      </c>
+      <c r="J68" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>🟩</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>NCT04348929</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr"/>
-      <c r="D69" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>NCT04467567</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>Birth Experience During COVID-19 Confinement (Confinement and Fostering Intrapartum Care)</t>
-        </is>
-      </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>CONFINE</t>
-        </is>
-      </c>
-      <c r="G69" t="b">
-        <v>1</v>
+          <t>Optimization for Clinical Routine of a Dosimetry Protocol Using the Large Field of View VERITON-CT CZT Camera in Patients Treated With LUTATHERA® [177Lu- [DOTA0, Tyr3] -Octreotate</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>EVADOVE177Lu</t>
+        </is>
       </c>
       <c r="H69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J69" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2988,32 +3333,37 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>NCT04937582</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr"/>
-      <c r="D70" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>NCT04764721</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>Long Term Cognitive and Psychological Disorders After Severe COVID-19 Infection in Young Patients</t>
-        </is>
-      </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>NEUROCOG-COVID</t>
-        </is>
-      </c>
-      <c r="G70" t="b">
-        <v>0</v>
+          <t>Characterization in 18F-FDG PET-CT of Brain and Lung Lesions in Young Subjects With Sequelae Psycho-cognitive Disorders in the Aftermath of Severe Covid-19</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>TEP-COV</t>
+        </is>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
       <c r="I70" t="b">
+        <v>0</v>
+      </c>
+      <c r="J70" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3025,32 +3375,37 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>NCT03347760</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr"/>
-      <c r="D71" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>NCT04937582</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>Monocentric Interventionnal Pilot Study Pilot Study Evaluating Somatostatin Receptor's PET Imaging to Detect Inflammatory Phases of Myocarditis</t>
-        </is>
-      </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>DOTAMIR</t>
-        </is>
-      </c>
-      <c r="G71" t="b">
-        <v>0</v>
+          <t>Long Term Cognitive and Psychological Disorders After Severe COVID-19 Infection in Young Patients</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>NEUROCOG-COVID</t>
+        </is>
       </c>
       <c r="H71" t="b">
         <v>0</v>
       </c>
       <c r="I71" t="b">
+        <v>0</v>
+      </c>
+      <c r="J71" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3062,70 +3417,80 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>NCT04467567</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr"/>
-      <c r="D72" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>NCT03347760</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>Optimization for Clinical Routine of a Dosimetry Protocol Using the Large Field of View VERITON-CT CZT Camera in Patients Treated With LUTATHERA® [177Lu- [DOTA0, Tyr3] -Octreotate</t>
-        </is>
-      </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>EVADOVE177Lu</t>
-        </is>
-      </c>
-      <c r="G72" t="b">
-        <v>0</v>
+          <t>Monocentric Interventionnal Pilot Study Pilot Study Evaluating Somatostatin Receptor's PET Imaging to Detect Inflammatory Phases of Myocarditis</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>DOTAMIR</t>
+        </is>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
       <c r="I72" t="b">
+        <v>0</v>
+      </c>
+      <c r="J72" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟩</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>NCT04764721</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr"/>
-      <c r="D73" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>NCT04348929</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>Characterization in 18F-FDG PET-CT of Brain and Lung Lesions in Young Subjects With Sequelae Psycho-cognitive Disorders in the Aftermath of Severe Covid-19</t>
-        </is>
-      </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>TEP-COV</t>
-        </is>
-      </c>
-      <c r="G73" t="b">
-        <v>0</v>
+          <t>Birth Experience During COVID-19 Confinement (Confinement and Fostering Intrapartum Care)</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>CONFINE</t>
+        </is>
       </c>
       <c r="H73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J73" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -3136,32 +3501,37 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
           <t>NCT05910424</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr"/>
-      <c r="D74" t="inlineStr">
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>Characterisation of the Oral Microbiota and Oral Status of a Population of Adult Patients With Autism Spectrum Disorders: a Pilot Study</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>MICAA</t>
         </is>
       </c>
-      <c r="G74" t="b">
-        <v>0</v>
-      </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
       <c r="I74" t="b">
+        <v>0</v>
+      </c>
+      <c r="J74" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3173,32 +3543,37 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
           <t>NCT04275895</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr"/>
-      <c r="D75" t="inlineStr">
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>Interdependency Between Cognitive and Postural Activities in Prematurely Born Children</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>COGNIPOST</t>
         </is>
       </c>
-      <c r="G75" t="b">
-        <v>0</v>
-      </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
       <c r="I75" t="b">
+        <v>0</v>
+      </c>
+      <c r="J75" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3210,32 +3585,37 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
           <t>NCT03432182</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr"/>
-      <c r="D76" t="inlineStr">
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>Characterization of Movements Occurring During Sleep in Very Premature Neonates: Relationship With Neurodevelopmental Outcome</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>DODOPREMA</t>
         </is>
       </c>
-      <c r="G76" t="b">
-        <v>0</v>
-      </c>
       <c r="H76" t="b">
         <v>0</v>
       </c>
       <c r="I76" t="b">
+        <v>0</v>
+      </c>
+      <c r="J76" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3247,32 +3627,37 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
           <t>NCT05183555</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr"/>
-      <c r="D77" t="inlineStr">
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>Early Feasibility Study of Somatostatin Receptors PET Imaging (68Ga-DOTATOC PET/CT) for the Diagnosis of Infective Endocarditis</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>DOTENDO</t>
         </is>
       </c>
-      <c r="G77" t="b">
-        <v>0</v>
-      </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
       <c r="I77" t="b">
+        <v>0</v>
+      </c>
+      <c r="J77" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3284,28 +3669,33 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
           <t>NCT01253252</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr"/>
-      <c r="E78" t="inlineStr">
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr">
         <is>
           <t>Endoprosthesis Treatment Effects on Human Abdominal Aorta Aneurysms(AAA)Metabolic Activity</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>AAAendo</t>
         </is>
       </c>
-      <c r="G78" t="b">
-        <v>0</v>
-      </c>
       <c r="H78" t="b">
         <v>0</v>
       </c>
       <c r="I78" t="b">
+        <v>0</v>
+      </c>
+      <c r="J78" t="b">
         <v>0</v>
       </c>
     </row>

--- a/publipostage/016ncsr12/liste_essais_cliniques_identifies_016ncsr12.xlsx
+++ b/publipostage/016ncsr12/liste_essais_cliniques_identifies_016ncsr12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J78"/>
+  <dimension ref="A1:K78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,11 @@
           <t>results</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>intervention_type</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -526,6 +531,11 @@
       <c r="J2" t="b">
         <v>0</v>
       </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -564,6 +574,11 @@
       <c r="J3" t="b">
         <v>0</v>
       </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -606,6 +621,11 @@
       <c r="J4" t="b">
         <v>1</v>
       </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -644,6 +664,11 @@
       <c r="J5" t="b">
         <v>0</v>
       </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -686,6 +711,11 @@
       <c r="J6" t="b">
         <v>0</v>
       </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -728,6 +758,11 @@
       <c r="J7" t="b">
         <v>0</v>
       </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -770,6 +805,11 @@
       <c r="J8" t="b">
         <v>0</v>
       </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -812,6 +852,11 @@
       <c r="J9" t="b">
         <v>0</v>
       </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -850,6 +895,11 @@
       <c r="J10" t="b">
         <v>0</v>
       </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -892,6 +942,11 @@
       <c r="J11" t="b">
         <v>0</v>
       </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -934,6 +989,11 @@
       <c r="J12" t="b">
         <v>0</v>
       </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -976,6 +1036,11 @@
       <c r="J13" t="b">
         <v>1</v>
       </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1018,6 +1083,11 @@
       <c r="J14" t="b">
         <v>0</v>
       </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1060,6 +1130,11 @@
       <c r="J15" t="b">
         <v>0</v>
       </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1102,6 +1177,11 @@
       <c r="J16" t="b">
         <v>0</v>
       </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1144,6 +1224,11 @@
       <c r="J17" t="b">
         <v>1</v>
       </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>RADIATION</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1186,6 +1271,11 @@
       <c r="J18" t="b">
         <v>0</v>
       </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1228,6 +1318,11 @@
       <c r="J19" t="b">
         <v>0</v>
       </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1270,6 +1365,11 @@
       <c r="J20" t="b">
         <v>1</v>
       </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1312,6 +1412,11 @@
       <c r="J21" t="b">
         <v>0</v>
       </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1354,6 +1459,11 @@
       <c r="J22" t="b">
         <v>0</v>
       </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1396,6 +1506,11 @@
       <c r="J23" t="b">
         <v>0</v>
       </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1438,6 +1553,11 @@
       <c r="J24" t="b">
         <v>1</v>
       </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1476,6 +1596,11 @@
       <c r="J25" t="b">
         <v>0</v>
       </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1518,6 +1643,11 @@
       <c r="J26" t="b">
         <v>0</v>
       </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1560,6 +1690,11 @@
       <c r="J27" t="b">
         <v>0</v>
       </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1602,6 +1737,11 @@
       <c r="J28" t="b">
         <v>0</v>
       </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1644,6 +1784,11 @@
       <c r="J29" t="b">
         <v>1</v>
       </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1686,6 +1831,11 @@
       <c r="J30" t="b">
         <v>1</v>
       </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1728,6 +1878,11 @@
       <c r="J31" t="b">
         <v>0</v>
       </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1774,6 +1929,11 @@
       <c r="J32" t="b">
         <v>1</v>
       </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1816,6 +1976,11 @@
       <c r="J33" t="b">
         <v>0</v>
       </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1858,6 +2023,11 @@
       <c r="J34" t="b">
         <v>1</v>
       </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1900,6 +2070,11 @@
       <c r="J35" t="b">
         <v>0</v>
       </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1942,6 +2117,11 @@
       <c r="J36" t="b">
         <v>0</v>
       </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1984,6 +2164,11 @@
       <c r="J37" t="b">
         <v>0</v>
       </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2026,6 +2211,11 @@
       <c r="J38" t="b">
         <v>1</v>
       </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2068,6 +2258,11 @@
       <c r="J39" t="b">
         <v>0</v>
       </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2110,6 +2305,11 @@
       <c r="J40" t="b">
         <v>0</v>
       </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2152,6 +2352,11 @@
       <c r="J41" t="b">
         <v>0</v>
       </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2190,6 +2395,11 @@
       <c r="J42" t="b">
         <v>1</v>
       </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2232,6 +2442,11 @@
       <c r="J43" t="b">
         <v>1</v>
       </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2274,6 +2489,11 @@
       <c r="J44" t="b">
         <v>1</v>
       </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2316,6 +2536,11 @@
       <c r="J45" t="b">
         <v>0</v>
       </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2354,6 +2579,11 @@
       <c r="J46" t="b">
         <v>1</v>
       </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2396,6 +2626,11 @@
       <c r="J47" t="b">
         <v>1</v>
       </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2438,6 +2673,11 @@
       <c r="J48" t="b">
         <v>1</v>
       </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2480,6 +2720,7 @@
       <c r="J49" t="b">
         <v>0</v>
       </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2522,6 +2763,11 @@
       <c r="J50" t="b">
         <v>0</v>
       </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2564,6 +2810,11 @@
       <c r="J51" t="b">
         <v>0</v>
       </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2606,6 +2857,11 @@
       <c r="J52" t="b">
         <v>0</v>
       </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2648,6 +2904,11 @@
       <c r="J53" t="b">
         <v>1</v>
       </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2690,6 +2951,11 @@
       <c r="J54" t="b">
         <v>0</v>
       </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2728,6 +2994,11 @@
       <c r="J55" t="b">
         <v>0</v>
       </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2770,6 +3041,11 @@
       <c r="J56" t="b">
         <v>0</v>
       </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2816,6 +3092,11 @@
       <c r="J57" t="b">
         <v>1</v>
       </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2862,6 +3143,11 @@
       <c r="J58" t="b">
         <v>1</v>
       </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2904,6 +3190,11 @@
       <c r="J59" t="b">
         <v>0</v>
       </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2946,6 +3237,11 @@
       <c r="J60" t="b">
         <v>0</v>
       </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2988,6 +3284,11 @@
       <c r="J61" t="b">
         <v>0</v>
       </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -3030,6 +3331,11 @@
       <c r="J62" t="b">
         <v>1</v>
       </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3072,6 +3378,11 @@
       <c r="J63" t="b">
         <v>0</v>
       </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3114,6 +3425,11 @@
       <c r="J64" t="b">
         <v>0</v>
       </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3156,6 +3472,11 @@
       <c r="J65" t="b">
         <v>0</v>
       </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>RADIATION</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -3198,6 +3519,11 @@
       <c r="J66" t="b">
         <v>0</v>
       </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -3240,6 +3566,11 @@
       <c r="J67" t="b">
         <v>0</v>
       </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>DIAGNOSTIC_TEST</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -3282,6 +3613,11 @@
       <c r="J68" t="b">
         <v>0</v>
       </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -3324,6 +3660,11 @@
       <c r="J69" t="b">
         <v>0</v>
       </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3366,6 +3707,11 @@
       <c r="J70" t="b">
         <v>0</v>
       </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -3408,6 +3754,11 @@
       <c r="J71" t="b">
         <v>0</v>
       </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>DIAGNOSTIC_TEST</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -3450,6 +3801,11 @@
       <c r="J72" t="b">
         <v>0</v>
       </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -3492,6 +3848,11 @@
       <c r="J73" t="b">
         <v>1</v>
       </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -3534,6 +3895,11 @@
       <c r="J74" t="b">
         <v>0</v>
       </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -3576,6 +3942,11 @@
       <c r="J75" t="b">
         <v>0</v>
       </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -3618,6 +3989,11 @@
       <c r="J76" t="b">
         <v>0</v>
       </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>DIAGNOSTIC_TEST</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -3659,6 +4035,11 @@
       </c>
       <c r="J77" t="b">
         <v>0</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
       </c>
     </row>
     <row r="78">
@@ -3697,6 +4078,11 @@
       </c>
       <c r="J78" t="b">
         <v>0</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>RADIATION</t>
+        </is>
       </c>
     </row>
   </sheetData>
